--- a/Data/Suppliers.xlsx
+++ b/Data/Suppliers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andris\Desktop\PEI_LD4_Streamlit_Dash_2\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D760C16-EAF4-422B-92F5-20B0ACC7A42E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B80FB1A8-253D-4B1C-BE26-ED1EA68673D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9A62C1E1-5350-41BB-8770-17490CEF6A7B}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{9A62C1E1-5350-41BB-8770-17490CEF6A7B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -158,9 +158,6 @@
     <t>Netherlands</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>WWP</t>
   </si>
   <si>
@@ -174,6 +171,9 @@
   </si>
   <si>
     <t>China</t>
+  </si>
+  <si>
+    <t>IBC</t>
   </si>
 </sst>
 </file>
@@ -543,7 +543,7 @@
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -608,7 +608,7 @@
         <v>39</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F2" s="1">
         <v>5.2</v>
@@ -623,10 +623,10 @@
         <v>6.8936999999999999</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -634,7 +634,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>18</v>
@@ -643,7 +643,7 @@
         <v>37</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F3" s="1">
         <v>5.3</v>
@@ -658,10 +658,10 @@
         <v>1.8883000000000001</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -693,10 +693,10 @@
         <v>-95.712900000000005</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -704,16 +704,16 @@
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="F5" s="1">
         <v>5.2</v>
@@ -728,10 +728,10 @@
         <v>15.266299999999999</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -739,16 +739,16 @@
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="F6" s="1">
         <v>5.3</v>
@@ -763,10 +763,10 @@
         <v>116.4074</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -783,7 +783,7 @@
         <v>39</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F7" s="1">
         <v>7</v>
@@ -798,10 +798,10 @@
         <v>6.8936999999999999</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -809,7 +809,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>18</v>
@@ -818,7 +818,7 @@
         <v>37</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F8" s="1">
         <v>7.3</v>
@@ -833,10 +833,10 @@
         <v>1.8883000000000001</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -868,10 +868,10 @@
         <v>-95.712900000000005</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -879,16 +879,16 @@
         <v>1</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="F10" s="1">
         <v>6.3</v>
@@ -903,10 +903,10 @@
         <v>15.266299999999999</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -914,16 +914,16 @@
         <v>1</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F11" s="1">
         <v>6.1</v>
@@ -938,10 +938,10 @@
         <v>116.4074</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">

--- a/Data/Suppliers.xlsx
+++ b/Data/Suppliers.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andris\Desktop\PEI_LD4_Streamlit_Dash_2\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B80FB1A8-253D-4B1C-BE26-ED1EA68673D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C676482D-9763-481F-BA4D-846668212546}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{9A62C1E1-5350-41BB-8770-17490CEF6A7B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="47">
   <si>
     <t>Name</t>
   </si>
@@ -174,6 +174,9 @@
   </si>
   <si>
     <t>IBC</t>
+  </si>
+  <si>
+    <t> Squeeze</t>
   </si>
 </sst>
 </file>
@@ -189,10 +192,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <color rgb="FF454749"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -215,16 +219,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -540,10 +559,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{288B815B-AC47-42C8-8EAA-D8E082A6E8D1}">
-  <dimension ref="A1:K30"/>
+  <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -560,961 +579,1229 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="2">
         <v>5.2</v>
       </c>
       <c r="G2" s="3">
         <v>1173483</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2" s="2">
         <v>52.221499999999999</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2" s="2">
         <v>6.8936999999999999</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>0</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="2">
         <v>5.3</v>
       </c>
       <c r="G3" s="3">
         <v>1068679</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="2">
         <v>46.603299999999997</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3" s="2">
         <v>1.8883000000000001</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>0</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="2">
         <v>4.9000000000000004</v>
       </c>
       <c r="G4" s="3">
         <v>288000</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="2">
         <v>37.090200000000003</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4" s="2">
         <v>-95.712900000000005</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="K4" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>0</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="2">
         <v>5.2</v>
       </c>
       <c r="G5" s="3">
         <v>14893</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="2">
         <v>-4.4419000000000004</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="2">
         <v>15.266299999999999</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="J5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="K5" s="2" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>0</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="2">
         <v>5.3</v>
       </c>
       <c r="G6" s="3">
         <v>2775</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="2">
         <v>39.904200000000003</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="2">
         <v>116.4074</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="J6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="K6" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
+      <c r="A7" s="1">
         <v>1</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="2">
         <v>7</v>
       </c>
       <c r="G7" s="3">
         <v>819917</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="2">
         <v>52.221499999999999</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="2">
         <v>6.8936999999999999</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="J7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="K7" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
+      <c r="A8" s="1">
         <v>1</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="2">
         <v>7.3</v>
       </c>
       <c r="G8" s="3">
         <v>722260</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="2">
         <v>46.603299999999997</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8" s="2">
         <v>1.8883000000000001</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="J8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="K8" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
+      <c r="A9" s="1">
         <v>1</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="2">
         <v>6.6</v>
       </c>
       <c r="G9" s="3">
         <v>201410</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9" s="2">
         <v>37.090200000000003</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I9" s="2">
         <v>-95.712900000000005</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="J9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="K9" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
+      <c r="A10" s="1">
         <v>1</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="2">
         <v>6.3</v>
       </c>
       <c r="G10" s="3">
         <v>11830</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10" s="2">
         <v>-4.4419000000000004</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I10" s="2">
         <v>15.266299999999999</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="J10" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="K10" s="2" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
+      <c r="A11" s="1">
         <v>1</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="2">
         <v>6.1</v>
       </c>
       <c r="G11" s="3">
         <v>2317</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H11" s="2">
         <v>39.904200000000003</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11" s="2">
         <v>116.4074</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="J11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K11" s="1" t="s">
+      <c r="K11" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
+      <c r="A12" s="1">
         <v>2</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="2">
         <v>19.399999999999999</v>
       </c>
       <c r="G12" s="3">
         <v>307616</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H12" s="2">
         <v>51.165700000000001</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I12" s="2">
         <v>10.451499999999999</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="J12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K12" s="1" t="s">
+      <c r="K12" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
+      <c r="A13" s="1">
         <v>2</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="2">
         <v>20.3</v>
       </c>
       <c r="G13" s="3">
         <v>281497</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H13" s="2">
         <v>41.871899999999997</v>
       </c>
-      <c r="I13" s="1">
+      <c r="I13" s="2">
         <v>12.567399999999999</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="J13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K13" s="1" t="s">
+      <c r="K13" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
+      <c r="A14" s="1">
         <v>2</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="2">
         <v>0</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14" s="2">
         <v>0</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H14" s="2">
         <v>-14.234999999999999</v>
       </c>
-      <c r="I14" s="1">
+      <c r="I14" s="2">
         <v>-51.9253</v>
       </c>
-      <c r="J14" s="1" t="s">
+      <c r="J14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K14" s="1" t="s">
+      <c r="K14" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
+      <c r="A15" s="1">
         <v>2</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" s="2">
         <v>1.7</v>
       </c>
       <c r="G15" s="3">
         <v>861053</v>
       </c>
-      <c r="H15" s="1">
+      <c r="H15" s="2">
         <v>37.090200000000003</v>
       </c>
-      <c r="I15" s="1">
+      <c r="I15" s="2">
         <v>-95.712900000000005</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="J15" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K15" s="1" t="s">
+      <c r="K15" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
+      <c r="A16" s="1">
         <v>2</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" s="2">
         <v>0.1</v>
       </c>
       <c r="G16" s="3">
         <v>30000</v>
       </c>
-      <c r="H16" s="1">
+      <c r="H16" s="2">
         <v>40.463700000000003</v>
       </c>
-      <c r="I16" s="1">
+      <c r="I16" s="2">
         <v>-3.7492000000000001</v>
       </c>
-      <c r="J16" s="1" t="s">
+      <c r="J16" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K16" s="1" t="s">
+      <c r="K16" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
+      <c r="A17" s="1">
         <v>2</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17" s="2">
         <v>1.3</v>
       </c>
       <c r="G17" s="3">
         <v>65217</v>
       </c>
-      <c r="H17" s="1">
+      <c r="H17" s="2">
         <v>-20.5</v>
       </c>
-      <c r="I17" s="1">
+      <c r="I17" s="2">
         <v>-51.9253</v>
       </c>
-      <c r="J17" s="1" t="s">
+      <c r="J17" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K17" s="1" t="s">
+      <c r="K17" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
+      <c r="A18" s="1">
         <v>2</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18" s="2">
         <v>0.3</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G18" s="2">
         <v>623</v>
       </c>
-      <c r="H18" s="1">
+      <c r="H18" s="2">
         <v>46.603299999999997</v>
       </c>
-      <c r="I18" s="1">
+      <c r="I18" s="2">
         <v>1.8883000000000001</v>
       </c>
-      <c r="J18" s="1" t="s">
+      <c r="J18" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K18" s="1" t="s">
+      <c r="K18" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
+      <c r="A19" s="1">
         <v>2</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F19" s="2">
         <v>3.5</v>
       </c>
       <c r="G19" s="3">
         <v>4661</v>
       </c>
-      <c r="H19" s="1">
+      <c r="H19" s="2">
         <v>20.593699999999998</v>
       </c>
-      <c r="I19" s="1">
+      <c r="I19" s="2">
         <v>78.962900000000005</v>
       </c>
-      <c r="J19" s="1" t="s">
+      <c r="J19" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K19" s="1" t="s">
+      <c r="K19" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
+      <c r="A20" s="1">
         <v>3</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F20" s="2">
         <v>10.6</v>
       </c>
-      <c r="G20" s="1">
+      <c r="G20" s="2">
         <v>524632</v>
       </c>
-      <c r="H20" s="1">
+      <c r="H20" s="2">
         <v>51.165700000000001</v>
       </c>
-      <c r="I20" s="1">
+      <c r="I20" s="2">
         <v>10.451499999999999</v>
       </c>
-      <c r="J20" s="1" t="s">
+      <c r="J20" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K20" s="1" t="s">
+      <c r="K20" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
+      <c r="A21" s="1">
         <v>3</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21" s="2">
         <v>10.9</v>
       </c>
-      <c r="G21" s="1">
+      <c r="G21" s="2">
         <v>490166</v>
       </c>
-      <c r="H21" s="1">
+      <c r="H21" s="2">
         <v>41.871899999999997</v>
       </c>
-      <c r="I21" s="1">
+      <c r="I21" s="2">
         <v>12.567399999999999</v>
       </c>
-      <c r="J21" s="1" t="s">
+      <c r="J21" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K21" s="1" t="s">
+      <c r="K21" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="2">
+      <c r="A22" s="1">
         <v>3</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E22" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F22" s="2">
         <v>4.3</v>
       </c>
-      <c r="G22" s="1">
+      <c r="G22" s="2">
         <v>308163</v>
       </c>
-      <c r="H22" s="1">
+      <c r="H22" s="2">
         <v>37.090200000000003</v>
       </c>
-      <c r="I22" s="1">
+      <c r="I22" s="2">
         <v>-95.712900000000005</v>
       </c>
-      <c r="J22" s="1" t="s">
+      <c r="J22" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K22" s="1" t="s">
+      <c r="K22" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="2">
+      <c r="A23" s="1">
         <v>3</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E23" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F23" s="2">
         <v>0</v>
       </c>
-      <c r="G23" s="1">
+      <c r="G23" s="2">
         <v>0</v>
       </c>
-      <c r="H23" s="1">
+      <c r="H23" s="2">
         <v>-14.234999999999999</v>
       </c>
-      <c r="I23" s="1">
+      <c r="I23" s="2">
         <v>-51.9253</v>
       </c>
-      <c r="J23" s="1" t="s">
+      <c r="J23" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K23" s="1" t="s">
+      <c r="K23" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="2">
+      <c r="A24" s="1">
         <v>3</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E24" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F24" s="2">
         <v>2.4</v>
       </c>
-      <c r="G24" s="1">
+      <c r="G24" s="2">
         <v>30000</v>
       </c>
-      <c r="H24" s="1">
+      <c r="H24" s="2">
         <v>-20.5</v>
       </c>
-      <c r="I24" s="1">
+      <c r="I24" s="2">
         <v>-51.9253</v>
       </c>
-      <c r="J24" s="1" t="s">
+      <c r="J24" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K24" s="1" t="s">
+      <c r="K24" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="2">
+      <c r="A25" s="1">
         <v>3</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E25" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F25" s="2">
         <v>0.1</v>
       </c>
-      <c r="G25" s="1">
+      <c r="G25" s="2">
         <v>30000</v>
       </c>
-      <c r="H25" s="1">
+      <c r="H25" s="2">
         <v>40.463700000000003</v>
       </c>
-      <c r="I25" s="1">
+      <c r="I25" s="2">
         <v>-3.7492000000000001</v>
       </c>
-      <c r="J25" s="1" t="s">
+      <c r="J25" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K25" s="1" t="s">
+      <c r="K25" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" s="2">
+      <c r="A26" s="1">
         <v>3</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E26" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F26" s="1">
+      <c r="F26" s="2">
         <v>0.1</v>
       </c>
-      <c r="G26" s="1">
+      <c r="G26" s="2">
         <v>565</v>
       </c>
-      <c r="H26" s="1">
+      <c r="H26" s="2">
         <v>46.603299999999997</v>
       </c>
-      <c r="I26" s="1">
+      <c r="I26" s="2">
         <v>1.8883000000000001</v>
       </c>
-      <c r="J26" s="1" t="s">
+      <c r="J26" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K26" s="1" t="s">
+      <c r="K26" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="2">
+      <c r="A27" s="1">
         <v>3</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E27" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F27" s="1">
+      <c r="F27" s="2">
         <v>5.0999999999999996</v>
       </c>
-      <c r="G27" s="1">
+      <c r="G27" s="2">
         <v>2683</v>
       </c>
-      <c r="H27" s="1">
+      <c r="H27" s="2">
         <v>20.593699999999998</v>
       </c>
-      <c r="I27" s="1">
+      <c r="I27" s="2">
         <v>78.962900000000005</v>
       </c>
-      <c r="J27" s="1" t="s">
+      <c r="J27" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K27" s="1" t="s">
+      <c r="K27" s="2" t="s">
         <v>35</v>
       </c>
     </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" s="4">
+        <v>4</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F28" s="4">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="G28" s="6">
+        <v>286243</v>
+      </c>
+      <c r="H28" s="5">
+        <v>52.221499999999999</v>
+      </c>
+      <c r="I28" s="5">
+        <v>6.8936999999999999</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K28" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="4">
+        <v>4</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F29" s="4">
+        <v>20.9</v>
+      </c>
+      <c r="G29" s="6">
+        <v>261240</v>
+      </c>
+      <c r="H29" s="5">
+        <v>41.871899999999997</v>
+      </c>
+      <c r="I29" s="5">
+        <v>12.567399999999999</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K29" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
+      <c r="A30" s="4">
+        <v>4</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" s="7">
+        <v>10.3</v>
+      </c>
+      <c r="G30" s="6">
+        <v>131713</v>
+      </c>
+      <c r="H30" s="5">
+        <v>-14.234999999999999</v>
+      </c>
+      <c r="I30" s="5">
+        <v>-51.9253</v>
+      </c>
+      <c r="J30" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K30" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" s="4">
+        <v>4</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F31" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="G31" s="6">
+        <v>53854</v>
+      </c>
+      <c r="H31" s="5">
+        <v>37.090200000000003</v>
+      </c>
+      <c r="I31" s="5">
+        <v>-95.712900000000005</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K31" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" s="4">
+        <v>4</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32" s="7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G32" s="6">
+        <v>30000</v>
+      </c>
+      <c r="H32" s="5">
+        <v>-20.5</v>
+      </c>
+      <c r="I32" s="5">
+        <v>-51.9253</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K32" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" s="4">
+        <v>4</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="G33" s="6">
+        <v>30000</v>
+      </c>
+      <c r="H33" s="5">
+        <v>40.463700000000003</v>
+      </c>
+      <c r="I33" s="5">
+        <v>-3.7492000000000001</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K33" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34" s="4">
+        <v>4</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F34" s="7">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="G34" s="8">
+        <v>523</v>
+      </c>
+      <c r="H34" s="5">
+        <v>20.593699999999998</v>
+      </c>
+      <c r="I34" s="5">
+        <v>78.962900000000005</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K34" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" s="4">
+        <v>4</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F35" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="G35" s="6">
+        <v>1374</v>
+      </c>
+      <c r="H35" s="5">
+        <v>46.603299999999997</v>
+      </c>
+      <c r="I35" s="5">
+        <v>1.8883000000000001</v>
+      </c>
+      <c r="J35" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K35" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/Suppliers.xlsx
+++ b/Data/Suppliers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andris\Desktop\PEI_LD4_Streamlit_Dash_2\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C676482D-9763-481F-BA4D-846668212546}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48CCB560-A622-4A60-BC57-77F79EB6C093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{9A62C1E1-5350-41BB-8770-17490CEF6A7B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="47">
   <si>
     <t>Name</t>
   </si>
@@ -219,21 +219,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -244,6 +244,18 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -559,10 +571,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{288B815B-AC47-42C8-8EAA-D8E082A6E8D1}">
-  <dimension ref="A1:K35"/>
+  <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="K45" sqref="K45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1803,6 +1815,290 @@
         <v>35</v>
       </c>
     </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36" s="4">
+        <v>5</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F36" s="10">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="G36" s="11">
+        <v>324600</v>
+      </c>
+      <c r="H36" s="5">
+        <v>52.221499999999999</v>
+      </c>
+      <c r="I36" s="5">
+        <v>6.8936999999999999</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K36" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>5</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F37" s="9">
+        <v>18.5</v>
+      </c>
+      <c r="G37" s="11">
+        <v>284149</v>
+      </c>
+      <c r="H37" s="5">
+        <v>41.871899999999997</v>
+      </c>
+      <c r="I37" s="5">
+        <v>12.567399999999999</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>5</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F38" s="10">
+        <v>9.5</v>
+      </c>
+      <c r="G38" s="11">
+        <v>141402</v>
+      </c>
+      <c r="H38" s="5">
+        <v>-14.234999999999999</v>
+      </c>
+      <c r="I38" s="5">
+        <v>-51.9253</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>5</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F39" s="8">
+        <v>0</v>
+      </c>
+      <c r="G39" s="12">
+        <v>0</v>
+      </c>
+      <c r="H39" s="5">
+        <v>37.090200000000003</v>
+      </c>
+      <c r="I39" s="5">
+        <v>-95.712900000000005</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>5</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F40" s="10">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="G40" s="11">
+        <v>7845</v>
+      </c>
+      <c r="H40" s="5">
+        <v>-20.5</v>
+      </c>
+      <c r="I40" s="5">
+        <v>-51.9253</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>5</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F41" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="G41" s="11">
+        <v>30000</v>
+      </c>
+      <c r="H41" s="5">
+        <v>40.463700000000003</v>
+      </c>
+      <c r="I41" s="5">
+        <v>-3.7492000000000001</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>5</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F42" s="10">
+        <v>6.7</v>
+      </c>
+      <c r="G42" s="11">
+        <v>2017</v>
+      </c>
+      <c r="H42" s="5">
+        <v>20.593699999999998</v>
+      </c>
+      <c r="I42" s="5">
+        <v>78.962900000000005</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>5</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F43" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="G43" s="12">
+        <v>544</v>
+      </c>
+      <c r="H43" s="5">
+        <v>46.603299999999997</v>
+      </c>
+      <c r="I43" s="5">
+        <v>1.8883000000000001</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/Suppliers.xlsx
+++ b/Data/Suppliers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andris\Desktop\PEI_LD4_Streamlit_Dash_2\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48CCB560-A622-4A60-BC57-77F79EB6C093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0E6BECE-B0CE-4525-BE6C-CBE97E620D7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{9A62C1E1-5350-41BB-8770-17490CEF6A7B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9A62C1E1-5350-41BB-8770-17490CEF6A7B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="47">
   <si>
     <t>Name</t>
   </si>
@@ -219,7 +219,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -245,9 +245,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -256,6 +253,18 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -571,10 +580,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{288B815B-AC47-42C8-8EAA-D8E082A6E8D1}">
-  <dimension ref="A1:K44"/>
+  <dimension ref="A1:K52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="K45" sqref="K45"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1831,10 +1840,10 @@
       <c r="E36" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F36" s="10">
+      <c r="F36" s="9">
         <v>17.399999999999999</v>
       </c>
-      <c r="G36" s="11">
+      <c r="G36" s="10">
         <v>324600</v>
       </c>
       <c r="H36" s="5">
@@ -1866,10 +1875,10 @@
       <c r="E37" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F37" s="9">
+      <c r="F37" s="4">
         <v>18.5</v>
       </c>
-      <c r="G37" s="11">
+      <c r="G37" s="10">
         <v>284149</v>
       </c>
       <c r="H37" s="5">
@@ -1901,10 +1910,10 @@
       <c r="E38" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F38" s="10">
+      <c r="F38" s="9">
         <v>9.5</v>
       </c>
-      <c r="G38" s="11">
+      <c r="G38" s="10">
         <v>141402</v>
       </c>
       <c r="H38" s="5">
@@ -1939,7 +1948,7 @@
       <c r="F39" s="8">
         <v>0</v>
       </c>
-      <c r="G39" s="12">
+      <c r="G39" s="11">
         <v>0</v>
       </c>
       <c r="H39" s="5">
@@ -1956,148 +1965,430 @@
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A40" s="1">
+      <c r="A40" s="12">
         <v>5</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="D40" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E40" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F40" s="10">
+      <c r="E40" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F40" s="9">
         <v>9.1999999999999993</v>
       </c>
-      <c r="G40" s="11">
+      <c r="G40" s="10">
         <v>7845</v>
       </c>
-      <c r="H40" s="5">
+      <c r="H40" s="14">
         <v>-20.5</v>
       </c>
-      <c r="I40" s="5">
+      <c r="I40" s="14">
         <v>-51.9253</v>
       </c>
-      <c r="J40" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K40" s="1" t="s">
+      <c r="J40" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="K40" s="12" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A41" s="1">
+      <c r="A41" s="12">
         <v>5</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="D41" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="E41" s="12" t="s">
         <v>14</v>
       </c>
       <c r="F41" s="8">
         <v>0.1</v>
       </c>
-      <c r="G41" s="11">
+      <c r="G41" s="10">
         <v>30000</v>
       </c>
-      <c r="H41" s="5">
+      <c r="H41" s="14">
         <v>40.463700000000003</v>
       </c>
-      <c r="I41" s="5">
+      <c r="I41" s="14">
         <v>-3.7492000000000001</v>
       </c>
-      <c r="J41" s="1" t="s">
+      <c r="J41" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="K41" s="1" t="s">
+      <c r="K41" s="12" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A42" s="1">
+      <c r="A42" s="12">
         <v>5</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D42" s="4" t="s">
+      <c r="D42" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="E42" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="F42" s="10">
+      <c r="F42" s="9">
         <v>6.7</v>
       </c>
-      <c r="G42" s="11">
+      <c r="G42" s="10">
         <v>2017</v>
       </c>
-      <c r="H42" s="5">
+      <c r="H42" s="14">
         <v>20.593699999999998</v>
       </c>
-      <c r="I42" s="5">
+      <c r="I42" s="14">
         <v>78.962900000000005</v>
       </c>
-      <c r="J42" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K42" s="1" t="s">
+      <c r="J42" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="K42" s="12" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A43" s="1">
+      <c r="A43" s="12">
         <v>5</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C43" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D43" s="4" t="s">
+      <c r="D43" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="E43" s="12" t="s">
         <v>14</v>
       </c>
       <c r="F43" s="8">
         <v>0.1</v>
       </c>
-      <c r="G43" s="12">
+      <c r="G43" s="11">
         <v>544</v>
       </c>
-      <c r="H43" s="5">
+      <c r="H43" s="14">
         <v>46.603299999999997</v>
       </c>
-      <c r="I43" s="5">
+      <c r="I43" s="14">
         <v>1.8883000000000001</v>
       </c>
-      <c r="J43" s="1" t="s">
+      <c r="J43" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="K43" s="1" t="s">
+      <c r="K43" s="12" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="H44" s="5"/>
-      <c r="I44" s="5"/>
+      <c r="A44" s="12">
+        <v>6</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D44" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E44" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F44" s="9">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="G44" s="6">
+        <v>317925</v>
+      </c>
+      <c r="H44" s="14">
+        <v>52.221499999999999</v>
+      </c>
+      <c r="I44" s="14">
+        <v>6.8936999999999999</v>
+      </c>
+      <c r="J44" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="K44" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A45" s="12">
+        <v>6</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D45" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E45" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F45" s="8">
+        <v>18.5</v>
+      </c>
+      <c r="G45" s="6">
+        <v>285949</v>
+      </c>
+      <c r="H45" s="14">
+        <v>41.871899999999997</v>
+      </c>
+      <c r="I45" s="14">
+        <v>12.567399999999999</v>
+      </c>
+      <c r="J45" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="K45" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A46" s="12">
+        <v>6</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D46" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E46" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F46" s="9">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="G46" s="6">
+        <v>138125</v>
+      </c>
+      <c r="H46" s="14">
+        <v>-14.234999999999999</v>
+      </c>
+      <c r="I46" s="14">
+        <v>-51.9253</v>
+      </c>
+      <c r="J46" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="K46" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A47" s="12">
+        <v>6</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D47" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E47" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F47" s="8">
+        <v>0</v>
+      </c>
+      <c r="G47" s="8">
+        <v>0</v>
+      </c>
+      <c r="H47" s="14">
+        <v>37.090200000000003</v>
+      </c>
+      <c r="I47" s="14">
+        <v>-95.712900000000005</v>
+      </c>
+      <c r="J47" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="K47" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A48" s="12">
+        <v>6</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D48" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E48" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F48" s="9">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="G48" s="6">
+        <v>7720</v>
+      </c>
+      <c r="H48" s="14">
+        <v>-20.5</v>
+      </c>
+      <c r="I48" s="14">
+        <v>-51.9253</v>
+      </c>
+      <c r="J48" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="K48" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A49" s="12">
+        <v>6</v>
+      </c>
+      <c r="B49" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D49" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E49" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F49" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="G49" s="6">
+        <v>2900</v>
+      </c>
+      <c r="H49" s="14">
+        <v>40.463700000000003</v>
+      </c>
+      <c r="I49" s="14">
+        <v>-3.7492000000000001</v>
+      </c>
+      <c r="J49" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="K49" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A50" s="12">
+        <v>6</v>
+      </c>
+      <c r="B50" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D50" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E50" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F50" s="8">
+        <v>6.7</v>
+      </c>
+      <c r="G50" s="6">
+        <v>2013</v>
+      </c>
+      <c r="H50" s="14">
+        <v>20.593699999999998</v>
+      </c>
+      <c r="I50" s="14">
+        <v>78.962900000000005</v>
+      </c>
+      <c r="J50" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="K50" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A51" s="12">
+        <v>6</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D51" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E51" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F51" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="G51" s="8">
+        <v>521</v>
+      </c>
+      <c r="H51" s="14">
+        <v>46.603299999999997</v>
+      </c>
+      <c r="I51" s="14">
+        <v>1.8883000000000001</v>
+      </c>
+      <c r="J51" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="K51" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
